--- a/xlsx/a69_f05UPPachuca.xlsx
+++ b/xlsx/a69_f05UPPachuca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EVALUACION\EVALUACIÓN\2023\UPP-17-2023-12C\SIPOT\3ER TRIMESTRE\UPP 3ER TRI 2023 SIPOT vo.bo.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\CARGA PLATAFORMA\VOBO.2\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3002ED84-9EAD-4D7F-843F-9BA6469595B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
   <si>
     <t>44212</t>
   </si>
@@ -215,9 +216,6 @@
   </si>
   <si>
     <t>Universidad Politécnica de Pachuca - Dirección de Planeación (Departamento de Servicios escolares)</t>
-  </si>
-  <si>
-    <t>Departamento de Evaluación y Estadistica (UPP)</t>
   </si>
   <si>
     <t>Otorgar una oferta educativa de calidad a la población hidalguense.</t>
@@ -311,14 +309,28 @@
 (Personal docente)</t>
   </si>
   <si>
-    <t xml:space="preserve">Las metas ajustadas no fueron requeridas para este periodo.
-Conforme a la fracción II inciso a) artículo 17 del Reglamento de Ley de Entidades Paraestatales para poder publicar los resultados de los indicadores la Coordinación General de Evaluación Estratégica debe otorgar el visto bueno, por ello las metas  alcanzadas son del 2do. trimestre del ejercicio 2023 conforme al oficio UPLAPH-CGEE-0277-2023. </t>
+    <t>Departamento de Evaluación y Estadística (UPP)</t>
+  </si>
+  <si>
+    <t>Las metas ajustadas no fueron requeridas para este periodo. El avance de la meta del periodo refleja el ejercicio fiscal 2023</t>
+  </si>
+  <si>
+    <t>Las metas ajustadas no fueron requeridas para este periodo. El avance de la meta del periodo refleja el  ciclo escolar 2023-2024</t>
+  </si>
+  <si>
+    <t>Las metas ajustadas no fueron requeridas para este periodo. El avance de la meta del periodo refleja el  inicio del ciclo escolar 2023-2024</t>
+  </si>
+  <si>
+    <t>Las metas ajustadas no fueron requeridas para este periodo. El avance de la meta del periodo refleja el  ciclo escolar 2022-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,11 +344,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -390,34 +404,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -426,13 +443,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,9 +463,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -492,7 +503,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -598,7 +609,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -740,233 +751,233 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R13" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="H8" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="5" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="73.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="44.5703125" style="5" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="1" customWidth="1"/>
+    <col min="8" max="8" width="71.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="73.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.5703125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:20" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:20" s="7" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:20" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:20" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -1028,15 +1039,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:20" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2023</v>
       </c>
-      <c r="B8" s="2">
-        <v>45108</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45199</v>
+      <c r="B8" s="8">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="8">
+        <v>45291</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>56</v>
@@ -1065,59 +1076,59 @@
       <c r="L8" s="3">
         <v>1400</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="M8" s="3"/>
+      <c r="N8" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>54</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="8">
+        <v>45301</v>
+      </c>
+      <c r="S8" s="8">
+        <v>45301</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="7" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="8">
+        <v>45200</v>
+      </c>
+      <c r="C9" s="8">
+        <v>45291</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R8" s="2">
-        <v>45209</v>
-      </c>
-      <c r="S8" s="2">
-        <v>45209</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45108</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45199</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9" s="4">
         <v>0.59</v>
@@ -1125,59 +1136,59 @@
       <c r="L9" s="3">
         <v>88</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="7">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="M9" s="3"/>
+      <c r="N9" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>54</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" s="2">
-        <v>45209</v>
-      </c>
-      <c r="S9" s="2">
-        <v>45209</v>
-      </c>
-      <c r="T9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="8">
+        <v>45301</v>
+      </c>
+      <c r="S9" s="8">
+        <v>45301</v>
+      </c>
+      <c r="T9" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>2023</v>
       </c>
-      <c r="B10" s="2">
-        <v>45108</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45199</v>
+      <c r="B10" s="8">
+        <v>45200</v>
+      </c>
+      <c r="C10" s="8">
+        <v>45291</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>61</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10" s="4">
         <v>0.72</v>
@@ -1185,59 +1196,59 @@
       <c r="L10" s="3">
         <v>3990</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="M10" s="3"/>
+      <c r="N10" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="2">
-        <v>45209</v>
-      </c>
-      <c r="S10" s="2">
-        <v>45209</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>93</v>
+      <c r="Q10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="8">
+        <v>45301</v>
+      </c>
+      <c r="S10" s="8">
+        <v>45301</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>2023</v>
       </c>
-      <c r="B11" s="2">
-        <v>45108</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45199</v>
+      <c r="B11" s="8">
+        <v>45200</v>
+      </c>
+      <c r="C11" s="8">
+        <v>45291</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="K11" s="4">
         <v>0.95</v>
@@ -1245,58 +1256,58 @@
       <c r="L11" s="3">
         <v>5</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="7">
-        <v>0.71</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="M11" s="3"/>
+      <c r="N11" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>54</v>
       </c>
       <c r="P11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" s="8">
+        <v>45301</v>
+      </c>
+      <c r="S11" s="8">
+        <v>45301</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="8">
+        <v>45200</v>
+      </c>
+      <c r="C12" s="8">
+        <v>45291</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" s="2">
-        <v>45209</v>
-      </c>
-      <c r="S11" s="2">
-        <v>45209</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45108</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45199</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="3" t="s">
         <v>62</v>
       </c>
       <c r="K12" s="4">
@@ -1305,59 +1316,59 @@
       <c r="L12" s="3">
         <v>5</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1" t="s">
+      <c r="M12" s="3"/>
+      <c r="N12" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="P12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="8">
+        <v>45301</v>
+      </c>
+      <c r="S12" s="8">
+        <v>45301</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="8">
+        <v>45200</v>
+      </c>
+      <c r="C13" s="8">
+        <v>45291</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="2">
-        <v>45209</v>
-      </c>
-      <c r="S12" s="2">
-        <v>45209</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45108</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45199</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K13" s="4">
         <v>0.79</v>
@@ -1365,27 +1376,27 @@
       <c r="L13" s="3">
         <v>164</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="M13" s="3"/>
+      <c r="N13" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>54</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R13" s="2">
-        <v>45209</v>
-      </c>
-      <c r="S13" s="2">
-        <v>45209</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" s="8">
+        <v>45301</v>
+      </c>
+      <c r="S13" s="8">
+        <v>45301</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1410,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O8:O201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_114</formula1>
     </dataValidation>
   </dataValidations>
@@ -1408,7 +1419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1421,12 +1432,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
     </row>
